--- a/hackathon_sirius_data.xlsx
+++ b/hackathon_sirius_data.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA12714-CFD6-4AB2-AF22-1870D0B8668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$C$1:$C$177</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -37,50 +57,86 @@
   <si>
     <t>max_train_tonnage</t>
   </si>
+  <si>
+    <t>length  to quantity limit</t>
+  </si>
+  <si>
+    <t>quantity limit to tonnage limit</t>
+  </si>
+  <si>
+    <t>quantity limit to max train tonnage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -370,26 +426,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="10" max="10" width="36.90625" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -404,22 +465,28 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>54</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>27.335</v>
+        <v>27.335000000000001</v>
       </c>
       <c r="F2">
         <v>52</v>
@@ -430,18 +497,26 @@
       <c r="H2">
         <v>10666.153846154</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2">
+        <f>CORREL(E1:E177,F1:F177)</f>
+        <v>0.67676640486983453</v>
+      </c>
+      <c r="K2">
+        <f>CORREL(F1:F177, H1:H177)</f>
+        <v>-0.29190893502689957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>28</v>
       </c>
       <c r="E3">
@@ -454,24 +529,27 @@
         <v>2387478</v>
       </c>
       <c r="H3">
-        <v>46813.294117647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>46813.294117646998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>40.084</v>
+        <v>40.084000000000003</v>
       </c>
       <c r="F4">
         <v>74</v>
@@ -480,24 +558,28 @@
         <v>2343746</v>
       </c>
       <c r="H4">
-        <v>63344.486486486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>63344.486486485999</v>
+      </c>
+      <c r="J4">
+        <f>CORREL(F1:F177, G1:G177)</f>
+        <v>0.3470882184359006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>48</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>54</v>
       </c>
       <c r="E5">
-        <v>6.041</v>
+        <v>6.0410000000000004</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -509,21 +591,21 @@
         <v>2411.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>27.031</v>
+        <v>27.030999999999999</v>
       </c>
       <c r="F6">
         <v>35</v>
@@ -532,20 +614,20 @@
         <v>2527097</v>
       </c>
       <c r="H6">
-        <v>144405.54285714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>144405.54285714001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>32</v>
       </c>
       <c r="E7">
@@ -558,24 +640,24 @@
         <v>2344540</v>
       </c>
       <c r="H7">
-        <v>22985.68627451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22985.686274510001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>62</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>34</v>
       </c>
       <c r="E8">
-        <v>42.217</v>
+        <v>42.216999999999999</v>
       </c>
       <c r="F8">
         <v>86</v>
@@ -587,17 +669,17 @@
         <v>30676.88372093</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>34</v>
       </c>
       <c r="E9">
@@ -610,24 +692,24 @@
         <v>1888168</v>
       </c>
       <c r="H9">
-        <v>92105.756097561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>92105.756097560996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>83</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>62</v>
       </c>
       <c r="E10">
-        <v>39.59</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="F10">
         <v>72</v>
@@ -639,21 +721,21 @@
         <v>13236.694444444</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>29.522</v>
+        <v>29.521999999999998</v>
       </c>
       <c r="F11">
         <v>66</v>
@@ -665,17 +747,17 @@
         <v>4361.696969697</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>50</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12">
@@ -691,17 +773,17 @@
         <v>83258.8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>77</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>10</v>
       </c>
       <c r="E13">
@@ -714,20 +796,20 @@
         <v>3221433</v>
       </c>
       <c r="H13">
-        <v>39770.777777778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>39770.777777777999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>58</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>10</v>
       </c>
       <c r="E14">
@@ -740,24 +822,24 @@
         <v>1115669</v>
       </c>
       <c r="H14">
-        <v>60306.432432432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>60306.432432431997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>63</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>50</v>
       </c>
       <c r="E15">
-        <v>161.901</v>
+        <v>161.90100000000001</v>
       </c>
       <c r="F15">
         <v>143</v>
@@ -769,21 +851,21 @@
         <v>10127.146853147</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>73</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>83</v>
       </c>
       <c r="E16">
-        <v>93.838</v>
+        <v>93.837999999999994</v>
       </c>
       <c r="F16">
         <v>186</v>
@@ -792,24 +874,24 @@
         <v>709251</v>
       </c>
       <c r="H16">
-        <v>7626.3548387097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>7626.3548387096998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>72</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>73</v>
       </c>
       <c r="E17">
-        <v>6.711</v>
+        <v>6.7110000000000003</v>
       </c>
       <c r="F17">
         <v>11</v>
@@ -818,24 +900,24 @@
         <v>338902</v>
       </c>
       <c r="H17">
-        <v>61618.545454545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>61618.545454544997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>46</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>72</v>
       </c>
       <c r="E18">
-        <v>4.604</v>
+        <v>4.6040000000000001</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -844,24 +926,24 @@
         <v>350618</v>
       </c>
       <c r="H18">
-        <v>28049.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>28049.439999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>46</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>73</v>
       </c>
       <c r="E19">
-        <v>6.332</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="F19">
         <v>16</v>
@@ -873,21 +955,21 @@
         <v>39749.125</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>77</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>71</v>
       </c>
       <c r="E20">
-        <v>175.908</v>
+        <v>175.90799999999999</v>
       </c>
       <c r="F20">
         <v>141</v>
@@ -896,20 +978,20 @@
         <v>3221433</v>
       </c>
       <c r="H20">
-        <v>45694.085106383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>45694.085106382998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>82</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>46</v>
       </c>
       <c r="E21">
@@ -922,24 +1004,24 @@
         <v>116165</v>
       </c>
       <c r="H21">
-        <v>1888.8617886179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>1888.8617886178999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>81</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>70</v>
       </c>
       <c r="E22">
-        <v>32.646</v>
+        <v>32.646000000000001</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -951,17 +1033,17 @@
         <v>7918.4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>31</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>79</v>
       </c>
       <c r="E23">
@@ -977,17 +1059,17 @@
         <v>11541.802325581</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>79</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>40</v>
       </c>
       <c r="E24">
@@ -1000,24 +1082,24 @@
         <v>2626158</v>
       </c>
       <c r="H24">
-        <v>23874.163636364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23874.163636363999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>63</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>289.269</v>
+        <v>289.26900000000001</v>
       </c>
       <c r="F25">
         <v>222</v>
@@ -1029,17 +1111,17 @@
         <v>29021.918918919</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>56</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>31</v>
       </c>
       <c r="E26">
@@ -1052,24 +1134,24 @@
         <v>2958721</v>
       </c>
       <c r="H26">
-        <v>37690.713375796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>37690.713375795996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>31</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>75</v>
       </c>
       <c r="E27">
-        <v>25.333</v>
+        <v>25.332999999999998</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1078,24 +1160,24 @@
         <v>420638</v>
       </c>
       <c r="H27">
-        <v>28042.533333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>28042.533333333002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>56</v>
       </c>
       <c r="E28">
-        <v>71.258</v>
+        <v>71.257999999999996</v>
       </c>
       <c r="F28">
         <v>89</v>
@@ -1104,20 +1186,20 @@
         <v>1296670</v>
       </c>
       <c r="H28">
-        <v>29138.651685393</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>29138.651685393001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>55</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>4</v>
       </c>
       <c r="E29">
@@ -1130,24 +1212,24 @@
         <v>1263158</v>
       </c>
       <c r="H29">
-        <v>29038.114942529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>29038.114942528999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>4</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>3.971</v>
+        <v>3.9710000000000001</v>
       </c>
       <c r="F30">
         <v>16</v>
@@ -1159,21 +1241,21 @@
         <v>129262.625</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>53</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>55</v>
       </c>
       <c r="E31">
-        <v>65.608</v>
+        <v>65.608000000000004</v>
       </c>
       <c r="F31">
         <v>79</v>
@@ -1182,24 +1264,24 @@
         <v>1033133</v>
       </c>
       <c r="H31">
-        <v>26155.265822785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>26155.265822785001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>44</v>
       </c>
       <c r="E32">
-        <v>40.194</v>
+        <v>40.194000000000003</v>
       </c>
       <c r="F32">
         <v>73</v>
@@ -1208,20 +1290,20 @@
         <v>2722824</v>
       </c>
       <c r="H32">
-        <v>74597.917808219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>74597.917808219005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>57</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>75</v>
       </c>
       <c r="E33">
@@ -1234,20 +1316,20 @@
         <v>483736</v>
       </c>
       <c r="H33">
-        <v>8340.275862069</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>8340.2758620690001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>47</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>53</v>
       </c>
       <c r="E34">
@@ -1260,24 +1342,24 @@
         <v>1469632</v>
       </c>
       <c r="H34">
-        <v>8773.9223880597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>8773.9223880597001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>20</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>47</v>
       </c>
       <c r="E35">
-        <v>58.046</v>
+        <v>58.045999999999999</v>
       </c>
       <c r="F35">
         <v>73</v>
@@ -1289,17 +1371,17 @@
         <v>26798.136986301</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>35</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>47</v>
       </c>
       <c r="E36">
@@ -1312,24 +1394,24 @@
         <v>309010</v>
       </c>
       <c r="H36">
-        <v>4511.0948905109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>4511.0948905108999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>15</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>20</v>
       </c>
       <c r="E37">
-        <v>80.175</v>
+        <v>80.174999999999997</v>
       </c>
       <c r="F37">
         <v>105</v>
@@ -1338,24 +1420,24 @@
         <v>338804</v>
       </c>
       <c r="H37">
-        <v>6453.4095238095</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>6453.4095238094997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>59</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>20</v>
       </c>
       <c r="E38">
-        <v>136.282</v>
+        <v>136.28200000000001</v>
       </c>
       <c r="F38">
         <v>117</v>
@@ -1364,20 +1446,20 @@
         <v>875456</v>
       </c>
       <c r="H38">
-        <v>14965.05982906</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14965.059829059999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>38</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>59</v>
       </c>
       <c r="E39">
@@ -1390,24 +1472,24 @@
         <v>1520002</v>
       </c>
       <c r="H39">
-        <v>21714.314285714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21714.314285714001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>49</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>59</v>
       </c>
       <c r="E40">
-        <v>51.474</v>
+        <v>51.473999999999997</v>
       </c>
       <c r="F40">
         <v>72</v>
@@ -1416,20 +1498,20 @@
         <v>2811170</v>
       </c>
       <c r="H40">
-        <v>78088.055555556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>78088.055555555999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>52</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>38</v>
       </c>
       <c r="E41">
@@ -1442,24 +1524,24 @@
         <v>133875</v>
       </c>
       <c r="H41">
-        <v>4958.3333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>4958.3333333333003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>13</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>38</v>
       </c>
       <c r="E42">
-        <v>67.957</v>
+        <v>67.956999999999994</v>
       </c>
       <c r="F42">
         <v>78</v>
@@ -1468,20 +1550,20 @@
         <v>308044</v>
       </c>
       <c r="H42">
-        <v>7898.5641025641</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>7898.5641025640998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>29</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>49</v>
       </c>
       <c r="E43">
@@ -1494,20 +1576,20 @@
         <v>644253</v>
       </c>
       <c r="H43">
-        <v>61357.428571429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>61357.428571429002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>18</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>13</v>
       </c>
       <c r="E44">
@@ -1520,24 +1602,24 @@
         <v>255865</v>
       </c>
       <c r="H44">
-        <v>6560.641025641</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>6560.6410256409999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>65</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>13</v>
       </c>
       <c r="E45">
-        <v>49.971</v>
+        <v>49.970999999999997</v>
       </c>
       <c r="F45">
         <v>51</v>
@@ -1546,24 +1628,24 @@
         <v>34300</v>
       </c>
       <c r="H45">
-        <v>1345.0980392157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>1345.0980392157001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>85</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>29</v>
       </c>
       <c r="E46">
-        <v>132.182</v>
+        <v>132.18199999999999</v>
       </c>
       <c r="F46">
         <v>120</v>
@@ -1572,24 +1654,24 @@
         <v>1098271</v>
       </c>
       <c r="H46">
-        <v>18304.516666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18304.516666667001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>85</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>72.788</v>
+        <v>72.787999999999997</v>
       </c>
       <c r="F47">
         <v>88</v>
@@ -1601,17 +1683,17 @@
         <v>14931.136363636</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>25</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>85</v>
       </c>
       <c r="E48">
@@ -1624,20 +1706,20 @@
         <v>422255</v>
       </c>
       <c r="H48">
-        <v>20107.380952381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>20107.380952381001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>21</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>25</v>
       </c>
       <c r="E49">
@@ -1650,20 +1732,20 @@
         <v>337800</v>
       </c>
       <c r="H49">
-        <v>16890.0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16890</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>78</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>40</v>
       </c>
       <c r="E50">
@@ -1676,24 +1758,24 @@
         <v>1078233</v>
       </c>
       <c r="H50">
-        <v>17532.243902439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>17532.243902439001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>6</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>78</v>
       </c>
       <c r="E51">
-        <v>81.413</v>
+        <v>81.412999999999997</v>
       </c>
       <c r="F51">
         <v>54</v>
@@ -1702,24 +1784,24 @@
         <v>32055</v>
       </c>
       <c r="H51">
-        <v>1187.2222222222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>1187.2222222221999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>78</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>60</v>
       </c>
       <c r="E52">
-        <v>212.383</v>
+        <v>212.38300000000001</v>
       </c>
       <c r="F52">
         <v>186</v>
@@ -1728,20 +1810,20 @@
         <v>3221433</v>
       </c>
       <c r="H52">
-        <v>34639.064516129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>34639.064516129001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <v>51</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>71</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>78</v>
       </c>
       <c r="E53">
@@ -1754,20 +1836,20 @@
         <v>3213148</v>
       </c>
       <c r="H53">
-        <v>44627.055555556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>44627.055555555999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>40</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>88</v>
       </c>
       <c r="E54">
@@ -1780,24 +1862,24 @@
         <v>3221433</v>
       </c>
       <c r="H54">
-        <v>35400.362637363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>35400.362637363003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <v>53</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>31</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>40</v>
       </c>
       <c r="E55">
-        <v>138.758</v>
+        <v>138.75800000000001</v>
       </c>
       <c r="F55">
         <v>185</v>
@@ -1806,24 +1888,24 @@
         <v>2103370</v>
       </c>
       <c r="H55">
-        <v>22739.135135135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22739.135135134999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <v>54</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>70</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>26</v>
       </c>
       <c r="E56">
-        <v>65.666</v>
+        <v>65.665999999999997</v>
       </c>
       <c r="F56">
         <v>80</v>
@@ -1835,17 +1917,17 @@
         <v>11217.775</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <v>55</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>70</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>71</v>
       </c>
       <c r="E57">
@@ -1858,24 +1940,24 @@
         <v>142975</v>
       </c>
       <c r="H57">
-        <v>16820.588235294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16820.588235293999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <v>56</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>89</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>60</v>
       </c>
       <c r="E58">
-        <v>115.454</v>
+        <v>115.45399999999999</v>
       </c>
       <c r="F58">
         <v>182</v>
@@ -1884,24 +1966,24 @@
         <v>3221433</v>
       </c>
       <c r="H58">
-        <v>35400.362637363</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>35400.362637363003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <v>57</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>60</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>42</v>
       </c>
       <c r="E59">
-        <v>28.171</v>
+        <v>28.170999999999999</v>
       </c>
       <c r="F59">
         <v>17</v>
@@ -1910,24 +1992,24 @@
         <v>1050119</v>
       </c>
       <c r="H59">
-        <v>123543.41176471</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>123543.41176471001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <v>58</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>88</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>23</v>
       </c>
       <c r="E60">
-        <v>53.347</v>
+        <v>53.347000000000001</v>
       </c>
       <c r="F60">
         <v>77</v>
@@ -1936,24 +2018,24 @@
         <v>2569000</v>
       </c>
       <c r="H60">
-        <v>66727.272727273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>66727.272727272997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <v>59</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>88</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>42</v>
       </c>
       <c r="E61">
-        <v>81.479</v>
+        <v>81.478999999999999</v>
       </c>
       <c r="F61">
         <v>150</v>
@@ -1965,17 +2047,17 @@
         <v>42952.44</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>89</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>3</v>
       </c>
       <c r="E62">
@@ -1988,24 +2070,24 @@
         <v>650942</v>
       </c>
       <c r="H62">
-        <v>43396.133333333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>43396.133333332997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <v>61</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>39</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>89</v>
       </c>
       <c r="E63">
-        <v>34.086</v>
+        <v>34.085999999999999</v>
       </c>
       <c r="F63">
         <v>25</v>
@@ -2017,17 +2099,17 @@
         <v>82092.88</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <v>62</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>39</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>76</v>
       </c>
       <c r="E64">
@@ -2040,20 +2122,20 @@
         <v>365475</v>
       </c>
       <c r="H64">
-        <v>27072.222222222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>27072.222222222001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <v>63</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>19</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>39</v>
       </c>
       <c r="E65">
@@ -2066,24 +2148,24 @@
         <v>1029888</v>
       </c>
       <c r="H65">
-        <v>68659.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>68659.199999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <v>64</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>42</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>24</v>
       </c>
       <c r="E66">
-        <v>22.197</v>
+        <v>22.196999999999999</v>
       </c>
       <c r="F66">
         <v>61</v>
@@ -2092,24 +2174,24 @@
         <v>2067298</v>
       </c>
       <c r="H66">
-        <v>67780.262295082</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>67780.262295081993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>23</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>41</v>
       </c>
       <c r="E67">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="F67">
         <v>96</v>
@@ -2118,24 +2200,24 @@
         <v>2627554</v>
       </c>
       <c r="H67">
-        <v>54740.708333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>54740.708333333001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <v>66</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>12</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>41</v>
       </c>
       <c r="E68">
-        <v>98.223</v>
+        <v>98.222999999999999</v>
       </c>
       <c r="F68">
         <v>193</v>
@@ -2147,21 +2229,21 @@
         <v>31061.419689119</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <v>67</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>41</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>80</v>
       </c>
       <c r="E69">
-        <v>40.778</v>
+        <v>40.777999999999999</v>
       </c>
       <c r="F69">
         <v>62</v>
@@ -2170,20 +2252,20 @@
         <v>1902368</v>
       </c>
       <c r="H69">
-        <v>61366.709677419</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>61366.709677418999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <v>68</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>43</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>63</v>
       </c>
       <c r="E70">
@@ -2199,21 +2281,21 @@
         <v>58043.837837838</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <v>69</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>84</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>43</v>
       </c>
       <c r="E71">
-        <v>83.447</v>
+        <v>83.447000000000003</v>
       </c>
       <c r="F71">
         <v>126</v>
@@ -2222,24 +2304,24 @@
         <v>1037028</v>
       </c>
       <c r="H71">
-        <v>16460.761904762</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16460.761904761999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <v>70</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>37</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>43</v>
       </c>
       <c r="E72">
-        <v>210.112</v>
+        <v>210.11199999999999</v>
       </c>
       <c r="F72">
         <v>118</v>
@@ -2248,24 +2330,24 @@
         <v>3221433</v>
       </c>
       <c r="H72">
-        <v>54600.559322034</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>54600.559322034002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <v>71</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>51</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>84</v>
       </c>
       <c r="E73">
-        <v>90.084</v>
+        <v>90.084000000000003</v>
       </c>
       <c r="F73">
         <v>137</v>
@@ -2277,21 +2359,21 @@
         <v>14637.693430657</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
         <v>72</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>44</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>12</v>
       </c>
       <c r="E74">
-        <v>74.066</v>
+        <v>74.066000000000003</v>
       </c>
       <c r="F74">
         <v>104</v>
@@ -2300,24 +2382,24 @@
         <v>2403070</v>
       </c>
       <c r="H74">
-        <v>46212.884615385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>46212.884615385003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <v>73</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>44</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>86</v>
       </c>
       <c r="E75">
-        <v>87.485</v>
+        <v>87.484999999999999</v>
       </c>
       <c r="F75">
         <v>44</v>
@@ -2326,20 +2408,20 @@
         <v>124033</v>
       </c>
       <c r="H75">
-        <v>5637.8636363636</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>5637.8636363635997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
         <v>74</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>80</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>68</v>
       </c>
       <c r="E76">
@@ -2352,24 +2434,24 @@
         <v>1293339</v>
       </c>
       <c r="H76">
-        <v>6293.6204379562</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>6293.6204379561996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <v>75</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>68</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>52.405</v>
+        <v>52.405000000000001</v>
       </c>
       <c r="F77">
         <v>112</v>
@@ -2378,24 +2460,24 @@
         <v>922879</v>
       </c>
       <c r="H77">
-        <v>16479.982142857</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16479.982142856999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
         <v>76</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>61</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>63.565</v>
+        <v>63.564999999999998</v>
       </c>
       <c r="F78">
         <v>36</v>
@@ -2404,20 +2486,20 @@
         <v>140971</v>
       </c>
       <c r="H78">
-        <v>7831.7222222222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>7831.7222222221999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
         <v>77</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>1</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>17</v>
       </c>
       <c r="E79">
@@ -2433,17 +2515,17 @@
         <v>15579.842105263</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <v>78</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>69</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>57</v>
       </c>
       <c r="E80">
@@ -2456,24 +2538,24 @@
         <v>144866</v>
       </c>
       <c r="H80">
-        <v>5365.4074074074</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>5365.4074074073997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <v>79</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>64</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>57</v>
       </c>
       <c r="E81">
-        <v>84.071</v>
+        <v>84.070999999999998</v>
       </c>
       <c r="F81">
         <v>46</v>
@@ -2485,17 +2567,17 @@
         <v>14164.260869565</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <v>80</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>87</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>64</v>
       </c>
       <c r="E82">
@@ -2511,21 +2593,21 @@
         <v>2583.6</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <v>14</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>64</v>
       </c>
       <c r="E83">
-        <v>67.847</v>
+        <v>67.846999999999994</v>
       </c>
       <c r="F83">
         <v>40</v>
@@ -2534,20 +2616,20 @@
         <v>191616</v>
       </c>
       <c r="H83">
-        <v>9580.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>9580.7999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <v>82</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
         <v>15</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>14</v>
       </c>
       <c r="E84">
@@ -2563,21 +2645,21 @@
         <v>34075.5</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <v>83</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <v>14</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>4.857</v>
+        <v>4.8570000000000002</v>
       </c>
       <c r="F85">
         <v>23</v>
@@ -2586,24 +2668,24 @@
         <v>2944133</v>
       </c>
       <c r="H85">
-        <v>256011.56521739</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>256011.56521738999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <v>84</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
         <v>27</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>45</v>
       </c>
       <c r="E86">
-        <v>29.063</v>
+        <v>29.062999999999999</v>
       </c>
       <c r="F86">
         <v>52</v>
@@ -2612,20 +2694,20 @@
         <v>2329681</v>
       </c>
       <c r="H86">
-        <v>89603.115384615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>89603.115384614997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <v>85</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
         <v>11</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>45</v>
       </c>
       <c r="E87">
@@ -2641,17 +2723,17 @@
         <v>26500.043165468</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <v>86</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <v>51</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>11</v>
       </c>
       <c r="E88">
@@ -2667,21 +2749,21 @@
         <v>13785.425101215</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <v>87</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>74</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>19</v>
       </c>
       <c r="E89">
-        <v>69.135</v>
+        <v>69.135000000000005</v>
       </c>
       <c r="F89">
         <v>29</v>
@@ -2690,24 +2772,24 @@
         <v>338116</v>
       </c>
       <c r="H89">
-        <v>23318.344827586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>23318.344827585999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <v>88</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>30</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>19</v>
       </c>
       <c r="E90">
-        <v>60.255</v>
+        <v>60.255000000000003</v>
       </c>
       <c r="F90">
         <v>39</v>
@@ -2716,24 +2798,24 @@
         <v>147210</v>
       </c>
       <c r="H90">
-        <v>7549.2307692308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>7549.2307692308004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <v>89</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>22</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>54</v>
       </c>
       <c r="E91">
-        <v>27.335</v>
+        <v>27.335000000000001</v>
       </c>
       <c r="F91">
         <v>54</v>
@@ -2742,20 +2824,20 @@
         <v>182762</v>
       </c>
       <c r="H91">
-        <v>6768.962962963</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>6768.9629629629999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <v>90</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>28</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>22</v>
       </c>
       <c r="E92">
@@ -2768,24 +2850,24 @@
         <v>3221433</v>
       </c>
       <c r="H92">
-        <v>56024.92173913</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>56024.921739129997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <v>91</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>22</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>32</v>
       </c>
       <c r="E93">
-        <v>40.084</v>
+        <v>40.084000000000003</v>
       </c>
       <c r="F93">
         <v>83</v>
@@ -2794,24 +2876,24 @@
         <v>3221433</v>
       </c>
       <c r="H93">
-        <v>77624.891566265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>77624.891566264996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <v>92</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>54</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>48</v>
       </c>
       <c r="E94">
-        <v>6.041</v>
+        <v>6.0410000000000004</v>
       </c>
       <c r="F94">
         <v>15</v>
@@ -2820,24 +2902,24 @@
         <v>41624</v>
       </c>
       <c r="H94">
-        <v>5549.8666666667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>5549.8666666667004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <v>93</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>27</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>28</v>
       </c>
       <c r="E95">
-        <v>27.031</v>
+        <v>27.030999999999999</v>
       </c>
       <c r="F95">
         <v>35</v>
@@ -2846,20 +2928,20 @@
         <v>3221433</v>
       </c>
       <c r="H95">
-        <v>184081.88571429</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>184081.88571428999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <v>94</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>32</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>34</v>
       </c>
       <c r="E96">
@@ -2875,21 +2957,21 @@
         <v>25874.963855422</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <v>95</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>34</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>62</v>
       </c>
       <c r="E97">
-        <v>42.217</v>
+        <v>42.216999999999999</v>
       </c>
       <c r="F97">
         <v>100</v>
@@ -2898,20 +2980,20 @@
         <v>1593936</v>
       </c>
       <c r="H97">
-        <v>31878.72</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>31878.720000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <v>96</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>34</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>10</v>
       </c>
       <c r="E98">
@@ -2924,24 +3006,24 @@
         <v>3221433</v>
       </c>
       <c r="H98">
-        <v>137082.25531915</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>137082.25531914999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <v>97</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>62</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>83</v>
       </c>
       <c r="E99">
-        <v>39.59</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="F99">
         <v>77</v>
@@ -2950,24 +3032,24 @@
         <v>864047</v>
       </c>
       <c r="H99">
-        <v>22442.779220779</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>22442.779220779001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
         <v>98</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>10</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>2</v>
       </c>
       <c r="E100">
-        <v>29.522</v>
+        <v>29.521999999999998</v>
       </c>
       <c r="F100">
         <v>67</v>
@@ -2976,20 +3058,20 @@
         <v>443088</v>
       </c>
       <c r="H100">
-        <v>13226.507462687</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>13226.507462686999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
         <v>99</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>10</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>50</v>
       </c>
       <c r="E101">
@@ -3002,20 +3084,20 @@
         <v>214216</v>
       </c>
       <c r="H101">
-        <v>23801.777777778</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23801.777777777999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
         <v>100</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>10</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>77</v>
       </c>
       <c r="E102">
@@ -3028,20 +3110,20 @@
         <v>3221433</v>
       </c>
       <c r="H102">
-        <v>36195.876404494</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>36195.876404494004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
         <v>101</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>10</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>58</v>
       </c>
       <c r="E103">
@@ -3054,24 +3136,24 @@
         <v>462578</v>
       </c>
       <c r="H103">
-        <v>27210.470588235</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>27210.470588234999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
         <v>102</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>50</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>63</v>
       </c>
       <c r="E104">
-        <v>161.901</v>
+        <v>161.90100000000001</v>
       </c>
       <c r="F104">
         <v>170</v>
@@ -3080,24 +3162,24 @@
         <v>232589</v>
       </c>
       <c r="H104">
-        <v>2736.3411764706</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>2736.3411764706002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
         <v>103</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="3">
         <v>83</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>73</v>
       </c>
       <c r="E105">
-        <v>93.838</v>
+        <v>93.837999999999994</v>
       </c>
       <c r="F105">
         <v>176</v>
@@ -3109,21 +3191,21 @@
         <v>10872.261363636</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
         <v>104</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <v>73</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>72</v>
       </c>
       <c r="E106">
-        <v>6.711</v>
+        <v>6.7110000000000003</v>
       </c>
       <c r="F106">
         <v>18</v>
@@ -3135,21 +3217,21 @@
         <v>49075.888888889</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
         <v>105</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <v>72</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <v>46</v>
       </c>
       <c r="E107">
-        <v>4.604</v>
+        <v>4.6040000000000001</v>
       </c>
       <c r="F107">
         <v>23</v>
@@ -3158,24 +3240,24 @@
         <v>231011</v>
       </c>
       <c r="H107">
-        <v>20087.913043478</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>20087.913043478002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
         <v>106</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
         <v>73</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>46</v>
       </c>
       <c r="E108">
-        <v>6.332</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="F108">
         <v>19</v>
@@ -3187,21 +3269,21 @@
         <v>48552.526315789</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
         <v>107</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>71</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <v>77</v>
       </c>
       <c r="E109">
-        <v>175.908</v>
+        <v>175.90799999999999</v>
       </c>
       <c r="F109">
         <v>143</v>
@@ -3210,20 +3292,20 @@
         <v>1618137</v>
       </c>
       <c r="H109">
-        <v>22631.286713287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>22631.286713287001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
         <v>108</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="3">
         <v>46</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>82</v>
       </c>
       <c r="E110">
@@ -3239,21 +3321,21 @@
         <v>2422.030075188</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
         <v>109</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="3">
         <v>70</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <v>81</v>
       </c>
       <c r="E111">
-        <v>32.646</v>
+        <v>32.646000000000001</v>
       </c>
       <c r="F111">
         <v>21</v>
@@ -3262,20 +3344,20 @@
         <v>41064</v>
       </c>
       <c r="H111">
-        <v>3910.8571428571</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>3910.8571428570999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
         <v>110</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="3">
         <v>79</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>31</v>
       </c>
       <c r="E112">
@@ -3291,17 +3373,17 @@
         <v>21786.448275862</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <v>111</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="3">
         <v>40</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <v>79</v>
       </c>
       <c r="E113">
@@ -3314,24 +3396,24 @@
         <v>1108686</v>
       </c>
       <c r="H113">
-        <v>9316.6890756303</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>9316.6890756303001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
         <v>112</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="3">
         <v>0</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
         <v>63</v>
       </c>
       <c r="E114">
-        <v>289.269</v>
+        <v>289.26900000000001</v>
       </c>
       <c r="F114">
         <v>241</v>
@@ -3343,17 +3425,17 @@
         <v>10980.663900415</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
         <v>113</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="3">
         <v>31</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
         <v>56</v>
       </c>
       <c r="E115">
@@ -3369,21 +3451,21 @@
         <v>37899.211764706</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <v>114</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="3">
         <v>75</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <v>31</v>
       </c>
       <c r="E116">
-        <v>25.333</v>
+        <v>25.332999999999998</v>
       </c>
       <c r="F116">
         <v>32</v>
@@ -3395,21 +3477,21 @@
         <v>31418.875</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
         <v>115</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="3">
         <v>56</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <v>4</v>
       </c>
       <c r="E117">
-        <v>71.258</v>
+        <v>71.257999999999996</v>
       </c>
       <c r="F117">
         <v>89</v>
@@ -3418,20 +3500,20 @@
         <v>1759883</v>
       </c>
       <c r="H117">
-        <v>39547.93258427</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>39547.932584269998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
         <v>116</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="3">
         <v>4</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
         <v>55</v>
       </c>
       <c r="E118">
@@ -3444,24 +3526,24 @@
         <v>1017496</v>
       </c>
       <c r="H118">
-        <v>21197.833333333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21197.833333333001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
         <v>117</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="3">
         <v>5</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
         <v>4</v>
       </c>
       <c r="E119">
-        <v>3.971</v>
+        <v>3.9710000000000001</v>
       </c>
       <c r="F119">
         <v>17</v>
@@ -3470,24 +3552,24 @@
         <v>515368</v>
       </c>
       <c r="H119">
-        <v>60631.529411765</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>60631.529411764997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
         <v>118</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="3">
         <v>55</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
         <v>53</v>
       </c>
       <c r="E120">
-        <v>65.608</v>
+        <v>65.608000000000004</v>
       </c>
       <c r="F120">
         <v>80</v>
@@ -3496,24 +3578,24 @@
         <v>994359</v>
       </c>
       <c r="H120">
-        <v>24858.975</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>24858.974999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
         <v>119</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="3">
         <v>44</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
         <v>5</v>
       </c>
       <c r="E121">
-        <v>40.194</v>
+        <v>40.194000000000003</v>
       </c>
       <c r="F121">
         <v>74</v>
@@ -3522,20 +3604,20 @@
         <v>1614414</v>
       </c>
       <c r="H121">
-        <v>43632.810810811</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>43632.810810811003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
         <v>120</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="3">
         <v>75</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
         <v>57</v>
       </c>
       <c r="E122">
@@ -3548,20 +3630,20 @@
         <v>354029</v>
       </c>
       <c r="H122">
-        <v>5851.7190082645</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>5851.7190082645002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
         <v>121</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="3">
         <v>53</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
         <v>47</v>
       </c>
       <c r="E123">
@@ -3574,24 +3656,24 @@
         <v>1268483</v>
       </c>
       <c r="H123">
-        <v>7439.7829912023</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>7439.7829912022999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
         <v>122</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="3">
         <v>47</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
         <v>20</v>
       </c>
       <c r="E124">
-        <v>58.046</v>
+        <v>58.045999999999999</v>
       </c>
       <c r="F124">
         <v>71</v>
@@ -3600,20 +3682,20 @@
         <v>774021</v>
       </c>
       <c r="H124">
-        <v>21803.408450704</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21803.408450703999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
         <v>123</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="3">
         <v>47</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
         <v>35</v>
       </c>
       <c r="E125">
@@ -3626,24 +3708,24 @@
         <v>316403</v>
       </c>
       <c r="H125">
-        <v>4364.1793103448</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>4364.1793103447999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
         <v>124</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="3">
         <v>20</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
         <v>15</v>
       </c>
       <c r="E126">
-        <v>80.175</v>
+        <v>80.174999999999997</v>
       </c>
       <c r="F126">
         <v>113</v>
@@ -3652,24 +3734,24 @@
         <v>300385</v>
       </c>
       <c r="H126">
-        <v>5316.5486725664</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>5316.5486725663995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
         <v>125</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <v>20</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
         <v>59</v>
       </c>
       <c r="E127">
-        <v>136.282</v>
+        <v>136.28200000000001</v>
       </c>
       <c r="F127">
         <v>96</v>
@@ -3678,20 +3760,20 @@
         <v>624830</v>
       </c>
       <c r="H127">
-        <v>13017.291666667</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>13017.291666667001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
         <v>126</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="3">
         <v>59</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
         <v>38</v>
       </c>
       <c r="E128">
@@ -3707,21 +3789,21 @@
         <v>32412.12</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
         <v>127</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="3">
         <v>59</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="3">
         <v>49</v>
       </c>
       <c r="E129">
-        <v>51.474</v>
+        <v>51.473999999999997</v>
       </c>
       <c r="F129">
         <v>81</v>
@@ -3730,20 +3812,20 @@
         <v>1975181</v>
       </c>
       <c r="H129">
-        <v>48769.901234568</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>48769.901234568002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
         <v>128</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="3">
         <v>38</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="3">
         <v>52</v>
       </c>
       <c r="E130">
@@ -3756,24 +3838,24 @@
         <v>128233</v>
       </c>
       <c r="H130">
-        <v>4421.8275862069</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>4421.8275862069004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
         <v>129</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="3">
         <v>38</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="3">
         <v>13</v>
       </c>
       <c r="E131">
-        <v>67.957</v>
+        <v>67.956999999999994</v>
       </c>
       <c r="F131">
         <v>96</v>
@@ -3782,20 +3864,20 @@
         <v>325117</v>
       </c>
       <c r="H131">
-        <v>6773.2708333333</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>6773.2708333333003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
         <v>130</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="3">
         <v>49</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="3">
         <v>29</v>
       </c>
       <c r="E132">
@@ -3808,20 +3890,20 @@
         <v>439265</v>
       </c>
       <c r="H132">
-        <v>30294.137931034</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>30294.137931034002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
         <v>131</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="3">
         <v>13</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
         <v>18</v>
       </c>
       <c r="E133">
@@ -3834,24 +3916,24 @@
         <v>245986</v>
       </c>
       <c r="H133">
-        <v>6307.3333333333</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>6307.3333333333003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
         <v>132</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="3">
         <v>13</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
         <v>65</v>
       </c>
       <c r="E134">
-        <v>49.971</v>
+        <v>49.970999999999997</v>
       </c>
       <c r="F134">
         <v>54</v>
@@ -3863,21 +3945,21 @@
         <v>2352.3703703704</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
         <v>133</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="3">
         <v>29</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
         <v>85</v>
       </c>
       <c r="E135">
-        <v>132.182</v>
+        <v>132.18199999999999</v>
       </c>
       <c r="F135">
         <v>114</v>
@@ -3886,24 +3968,24 @@
         <v>687522</v>
       </c>
       <c r="H135">
-        <v>12061.789473684</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12061.789473684001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
         <v>134</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="3">
         <v>16</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
         <v>85</v>
       </c>
       <c r="E136">
-        <v>72.788</v>
+        <v>72.787999999999997</v>
       </c>
       <c r="F136">
         <v>79</v>
@@ -3912,20 +3994,20 @@
         <v>1379462</v>
       </c>
       <c r="H136">
-        <v>34923.088607595</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>34923.088607594997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
         <v>135</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="3">
         <v>85</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
         <v>25</v>
       </c>
       <c r="E137">
@@ -3938,20 +4020,20 @@
         <v>485268</v>
       </c>
       <c r="H137">
-        <v>21098.608695652</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21098.608695652001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
         <v>136</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="3">
         <v>25</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
         <v>21</v>
       </c>
       <c r="E138">
@@ -3964,20 +4046,20 @@
         <v>357627</v>
       </c>
       <c r="H138">
-        <v>16255.772727273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16255.772727273001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <v>137</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="3">
         <v>40</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
         <v>78</v>
       </c>
       <c r="E139">
@@ -3990,24 +4072,24 @@
         <v>883705</v>
       </c>
       <c r="H139">
-        <v>13916.614173228</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>13916.614173227999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
         <v>138</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="3">
         <v>78</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
         <v>6</v>
       </c>
       <c r="E140">
-        <v>81.413</v>
+        <v>81.412999999999997</v>
       </c>
       <c r="F140">
         <v>67</v>
@@ -4016,24 +4098,24 @@
         <v>26368</v>
       </c>
       <c r="H140">
-        <v>787.10447761194</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>787.10447761193996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
         <v>139</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="3">
         <v>60</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
         <v>78</v>
       </c>
       <c r="E141">
-        <v>212.383</v>
+        <v>212.38300000000001</v>
       </c>
       <c r="F141">
         <v>205</v>
@@ -4042,20 +4124,20 @@
         <v>1578121</v>
       </c>
       <c r="H141">
-        <v>15396.302439024</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>15396.302439024001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
         <v>140</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="3">
         <v>78</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
         <v>71</v>
       </c>
       <c r="E142">
@@ -4068,20 +4150,20 @@
         <v>1608433</v>
       </c>
       <c r="H142">
-        <v>21303.748344371</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21303.748344371001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
         <v>141</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="3">
         <v>88</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
         <v>40</v>
       </c>
       <c r="E143">
@@ -4094,24 +4176,24 @@
         <v>3221433</v>
       </c>
       <c r="H143">
-        <v>34639.064516129</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>34639.064516129001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <v>142</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="3">
         <v>40</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
         <v>31</v>
       </c>
       <c r="E144">
-        <v>138.758</v>
+        <v>138.75800000000001</v>
       </c>
       <c r="F144">
         <v>199</v>
@@ -4120,24 +4202,24 @@
         <v>839657</v>
       </c>
       <c r="H144">
-        <v>8438.7638190955</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>8438.7638190955004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
         <v>143</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="3">
         <v>26</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
         <v>70</v>
       </c>
       <c r="E145">
-        <v>65.666</v>
+        <v>65.665999999999997</v>
       </c>
       <c r="F145">
         <v>78</v>
@@ -4146,20 +4228,20 @@
         <v>146047</v>
       </c>
       <c r="H145">
-        <v>3744.7948717949</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>3744.7948717948998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
         <v>144</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="3">
         <v>71</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
         <v>70</v>
       </c>
       <c r="E146">
@@ -4172,24 +4254,24 @@
         <v>408557</v>
       </c>
       <c r="H146">
-        <v>62854.923076923</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>62854.923076922998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
         <v>145</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="3">
         <v>60</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="3">
         <v>89</v>
       </c>
       <c r="E147">
-        <v>115.454</v>
+        <v>115.45399999999999</v>
       </c>
       <c r="F147">
         <v>191</v>
@@ -4198,24 +4280,24 @@
         <v>3221433</v>
       </c>
       <c r="H147">
-        <v>33732.282722513</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>33732.282722513002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
         <v>146</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="3">
         <v>42</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="3">
         <v>60</v>
       </c>
       <c r="E148">
-        <v>28.171</v>
+        <v>28.170999999999999</v>
       </c>
       <c r="F148">
         <v>23</v>
@@ -4224,24 +4306,24 @@
         <v>646706</v>
       </c>
       <c r="H148">
-        <v>56235.304347826</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>56235.304347826001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
         <v>147</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="3">
         <v>23</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="3">
         <v>88</v>
       </c>
       <c r="E149">
-        <v>53.347</v>
+        <v>53.347000000000001</v>
       </c>
       <c r="F149">
         <v>77</v>
@@ -4250,24 +4332,24 @@
         <v>1098523</v>
       </c>
       <c r="H149">
-        <v>28533.064935065</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>28533.064935064998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
         <v>148</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="3">
         <v>42</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="3">
         <v>88</v>
       </c>
       <c r="E150">
-        <v>81.479</v>
+        <v>81.478999999999999</v>
       </c>
       <c r="F150">
         <v>151</v>
@@ -4279,17 +4361,17 @@
         <v>17017.602649007</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
         <v>149</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="3">
         <v>3</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="3">
         <v>89</v>
       </c>
       <c r="E151">
@@ -4305,21 +4387,21 @@
         <v>46586.5</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
         <v>150</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="3">
         <v>89</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="3">
         <v>39</v>
       </c>
       <c r="E152">
-        <v>34.086</v>
+        <v>34.085999999999999</v>
       </c>
       <c r="F152">
         <v>25</v>
@@ -4331,17 +4413,17 @@
         <v>244386.88</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
         <v>151</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="3">
         <v>76</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="3">
         <v>39</v>
       </c>
       <c r="E153">
@@ -4357,17 +4439,17 @@
         <v>10557.12</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
         <v>152</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="3">
         <v>39</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="3">
         <v>19</v>
       </c>
       <c r="E154">
@@ -4380,24 +4462,24 @@
         <v>3092719</v>
       </c>
       <c r="H154">
-        <v>199530.25806452</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>199530.25806451999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
         <v>153</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="3">
         <v>24</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="3">
         <v>42</v>
       </c>
       <c r="E155">
-        <v>22.197</v>
+        <v>22.196999999999999</v>
       </c>
       <c r="F155">
         <v>54</v>
@@ -4406,24 +4488,24 @@
         <v>2452980</v>
       </c>
       <c r="H155">
-        <v>90851.111111111</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>90851.111111110993</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
         <v>154</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="3">
         <v>41</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="3">
         <v>23</v>
       </c>
       <c r="E156">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="F156">
         <v>102</v>
@@ -4432,24 +4514,24 @@
         <v>1105619</v>
       </c>
       <c r="H156">
-        <v>21678.803921569</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>21678.803921569001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
         <v>155</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="3">
         <v>41</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="3">
         <v>12</v>
       </c>
       <c r="E157">
-        <v>98.223</v>
+        <v>98.222999999999999</v>
       </c>
       <c r="F157">
         <v>201</v>
@@ -4458,24 +4540,24 @@
         <v>1102459</v>
       </c>
       <c r="H157">
-        <v>10969.741293532</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>10969.741293532001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
         <v>156</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="3">
         <v>80</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="3">
         <v>41</v>
       </c>
       <c r="E158">
-        <v>40.778</v>
+        <v>40.777999999999999</v>
       </c>
       <c r="F158">
         <v>61</v>
@@ -4484,20 +4566,20 @@
         <v>1031545</v>
       </c>
       <c r="H158">
-        <v>33821.147540984</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>33821.147540983999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
         <v>157</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="3">
         <v>63</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="3">
         <v>43</v>
       </c>
       <c r="E159">
@@ -4513,21 +4595,21 @@
         <v>25921.961904762</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
         <v>158</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="3">
         <v>43</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="3">
         <v>84</v>
       </c>
       <c r="E160">
-        <v>83.447</v>
+        <v>83.447000000000003</v>
       </c>
       <c r="F160">
         <v>139</v>
@@ -4539,21 +4621,21 @@
         <v>2970.5467625899</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <v>159</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="3">
         <v>43</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="3">
         <v>37</v>
       </c>
       <c r="E161">
-        <v>210.112</v>
+        <v>210.11199999999999</v>
       </c>
       <c r="F161">
         <v>135</v>
@@ -4562,24 +4644,24 @@
         <v>1323993</v>
       </c>
       <c r="H161">
-        <v>19614.711111111</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>19614.711111110999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162">
         <v>160</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="3">
         <v>84</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="3">
         <v>51</v>
       </c>
       <c r="E162">
-        <v>90.084</v>
+        <v>90.084000000000003</v>
       </c>
       <c r="F162">
         <v>152</v>
@@ -4588,24 +4670,24 @@
         <v>163706</v>
       </c>
       <c r="H162">
-        <v>2154.0263157895</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>2154.0263157895001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
         <v>161</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="3">
         <v>12</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="3">
         <v>44</v>
       </c>
       <c r="E163">
-        <v>74.066</v>
+        <v>74.066000000000003</v>
       </c>
       <c r="F163">
         <v>109</v>
@@ -4617,21 +4699,21 @@
         <v>18408.458715596</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
         <v>162</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="3">
         <v>86</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="3">
         <v>44</v>
       </c>
       <c r="E164">
-        <v>87.485</v>
+        <v>87.484999999999999</v>
       </c>
       <c r="F164">
         <v>72</v>
@@ -4640,20 +4722,20 @@
         <v>383883</v>
       </c>
       <c r="H164">
-        <v>10663.416666667</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>10663.416666667001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
         <v>163</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="3">
         <v>68</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="3">
         <v>80</v>
       </c>
       <c r="E165">
@@ -4666,24 +4748,24 @@
         <v>1013855</v>
       </c>
       <c r="H165">
-        <v>4566.9144144144</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>4566.9144144144002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
         <v>164</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="3">
         <v>1</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="3">
         <v>68</v>
       </c>
       <c r="E166">
-        <v>52.405</v>
+        <v>52.405000000000001</v>
       </c>
       <c r="F166">
         <v>119</v>
@@ -4692,24 +4774,24 @@
         <v>828386</v>
       </c>
       <c r="H166">
-        <v>13922.453781513</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>13922.453781513001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
         <v>165</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="3">
         <v>1</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="3">
         <v>61</v>
       </c>
       <c r="E167">
-        <v>63.565</v>
+        <v>63.564999999999998</v>
       </c>
       <c r="F167">
         <v>47</v>
@@ -4718,20 +4800,20 @@
         <v>149625</v>
       </c>
       <c r="H167">
-        <v>6367.0212765957</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>6367.0212765957003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
         <v>166</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="3">
         <v>17</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="3">
         <v>1</v>
       </c>
       <c r="E168">
@@ -4747,17 +4829,17 @@
         <v>13156.047619048</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
         <v>167</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="3">
         <v>57</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="3">
         <v>69</v>
       </c>
       <c r="E169">
@@ -4770,24 +4852,24 @@
         <v>168635</v>
       </c>
       <c r="H169">
-        <v>6132.1818181818</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>6132.1818181817998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <v>168</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="3">
         <v>57</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="3">
         <v>64</v>
       </c>
       <c r="E170">
-        <v>84.071</v>
+        <v>84.070999999999998</v>
       </c>
       <c r="F170">
         <v>58</v>
@@ -4796,20 +4878,20 @@
         <v>140627</v>
       </c>
       <c r="H170">
-        <v>4849.2068965517</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>4849.2068965517001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <v>169</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="3">
         <v>64</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="3">
         <v>87</v>
       </c>
       <c r="E171">
@@ -4822,24 +4904,24 @@
         <v>30631</v>
       </c>
       <c r="H171">
-        <v>1392.3181818182</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>1392.3181818181999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
         <v>170</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="3">
         <v>64</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="3">
         <v>14</v>
       </c>
       <c r="E172">
-        <v>67.847</v>
+        <v>67.846999999999994</v>
       </c>
       <c r="F172">
         <v>38</v>
@@ -4848,24 +4930,24 @@
         <v>157303</v>
       </c>
       <c r="H172">
-        <v>8279.1052631579</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>8279.1052631579005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>173</v>
       </c>
       <c r="B173">
         <v>173</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="3">
         <v>45</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="3">
         <v>27</v>
       </c>
       <c r="E173">
-        <v>29.063</v>
+        <v>29.062999999999999</v>
       </c>
       <c r="F173">
         <v>56</v>
@@ -4874,20 +4956,20 @@
         <v>3221433</v>
       </c>
       <c r="H173">
-        <v>115051.17857143</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>115051.17857143001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>174</v>
       </c>
       <c r="B174">
         <v>174</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="3">
         <v>45</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="3">
         <v>11</v>
       </c>
       <c r="E174">
@@ -4903,17 +4985,17 @@
         <v>11629.449275362</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>175</v>
       </c>
       <c r="B175">
         <v>175</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="3">
         <v>11</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="3">
         <v>51</v>
       </c>
       <c r="E175">
@@ -4926,24 +5008,24 @@
         <v>796354</v>
       </c>
       <c r="H175">
-        <v>6079.0381679389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>6079.0381679389002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>176</v>
       </c>
       <c r="B176">
         <v>176</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="3">
         <v>19</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="3">
         <v>74</v>
       </c>
       <c r="E176">
-        <v>69.135</v>
+        <v>69.135000000000005</v>
       </c>
       <c r="F176">
         <v>26</v>
@@ -4952,24 +5034,24 @@
         <v>1122136</v>
       </c>
       <c r="H176">
-        <v>86318.153846154</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>86318.153846154004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>177</v>
       </c>
       <c r="B177">
         <v>177</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="3">
         <v>19</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="3">
         <v>30</v>
       </c>
       <c r="E177">
-        <v>60.255</v>
+        <v>60.255000000000003</v>
       </c>
       <c r="F177">
         <v>42</v>
@@ -4982,17 +5064,557 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="C1:C177" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76F21BF-17A3-4080-BC33-FDF7E0732743}">
+  <dimension ref="A1:A89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" ref="A67:A89" si="1">A66+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hackathon_sirius_data.xlsx
+++ b/hackathon_sirius_data.xlsx
@@ -1,41 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA12714-CFD6-4AB2-AF22-1870D0B8668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$C$1:$C$177</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -57,86 +37,50 @@
   <si>
     <t>max_train_tonnage</t>
   </si>
-  <si>
-    <t>length  to quantity limit</t>
-  </si>
-  <si>
-    <t>quantity limit to tonnage limit</t>
-  </si>
-  <si>
-    <t>quantity limit to max train tonnage</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -426,31 +370,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="4" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="10" max="10" width="36.90625" customWidth="1"/>
-    <col min="11" max="11" width="29.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -465,28 +404,22 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>54</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>27.335000000000001</v>
+        <v>27.335</v>
       </c>
       <c r="F2">
         <v>52</v>
@@ -497,26 +430,18 @@
       <c r="H2">
         <v>10666.153846154</v>
       </c>
-      <c r="J2">
-        <f>CORREL(E1:E177,F1:F177)</f>
-        <v>0.67676640486983453</v>
-      </c>
-      <c r="K2">
-        <f>CORREL(F1:F177, H1:H177)</f>
-        <v>-0.29190893502689957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>22</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>28</v>
       </c>
       <c r="E3">
@@ -529,27 +454,24 @@
         <v>2387478</v>
       </c>
       <c r="H3">
-        <v>46813.294117646998</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>46813.294117647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>40.084000000000003</v>
+        <v>40.084</v>
       </c>
       <c r="F4">
         <v>74</v>
@@ -558,28 +480,24 @@
         <v>2343746</v>
       </c>
       <c r="H4">
-        <v>63344.486486485999</v>
-      </c>
-      <c r="J4">
-        <f>CORREL(F1:F177, G1:G177)</f>
-        <v>0.3470882184359006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>63344.486486486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>48</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>54</v>
       </c>
       <c r="E5">
-        <v>6.0410000000000004</v>
+        <v>6.041</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -591,21 +509,21 @@
         <v>2411.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>28</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>27.030999999999999</v>
+        <v>27.031</v>
       </c>
       <c r="F6">
         <v>35</v>
@@ -614,20 +532,20 @@
         <v>2527097</v>
       </c>
       <c r="H6">
-        <v>144405.54285714001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>144405.54285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>34</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>32</v>
       </c>
       <c r="E7">
@@ -640,24 +558,24 @@
         <v>2344540</v>
       </c>
       <c r="H7">
-        <v>22985.686274510001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>22985.68627451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>62</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>34</v>
       </c>
       <c r="E8">
-        <v>42.216999999999999</v>
+        <v>42.217</v>
       </c>
       <c r="F8">
         <v>86</v>
@@ -669,17 +587,17 @@
         <v>30676.88372093</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>34</v>
       </c>
       <c r="E9">
@@ -692,24 +610,24 @@
         <v>1888168</v>
       </c>
       <c r="H9">
-        <v>92105.756097560996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>92105.756097561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>83</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>62</v>
       </c>
       <c r="E10">
-        <v>39.590000000000003</v>
+        <v>39.59</v>
       </c>
       <c r="F10">
         <v>72</v>
@@ -721,21 +639,21 @@
         <v>13236.694444444</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>29.521999999999998</v>
+        <v>29.522</v>
       </c>
       <c r="F11">
         <v>66</v>
@@ -747,17 +665,17 @@
         <v>4361.696969697</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>50</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
@@ -773,17 +691,17 @@
         <v>83258.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>77</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
@@ -796,20 +714,20 @@
         <v>3221433</v>
       </c>
       <c r="H13">
-        <v>39770.777777777999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>39770.777777778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>58</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>10</v>
       </c>
       <c r="E14">
@@ -822,24 +740,24 @@
         <v>1115669</v>
       </c>
       <c r="H14">
-        <v>60306.432432431997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>60306.432432432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>63</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>50</v>
       </c>
       <c r="E15">
-        <v>161.90100000000001</v>
+        <v>161.901</v>
       </c>
       <c r="F15">
         <v>143</v>
@@ -851,21 +769,21 @@
         <v>10127.146853147</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>73</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>83</v>
       </c>
       <c r="E16">
-        <v>93.837999999999994</v>
+        <v>93.838</v>
       </c>
       <c r="F16">
         <v>186</v>
@@ -874,24 +792,24 @@
         <v>709251</v>
       </c>
       <c r="H16">
-        <v>7626.3548387096998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7626.3548387097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>72</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>73</v>
       </c>
       <c r="E17">
-        <v>6.7110000000000003</v>
+        <v>6.711</v>
       </c>
       <c r="F17">
         <v>11</v>
@@ -900,24 +818,24 @@
         <v>338902</v>
       </c>
       <c r="H17">
-        <v>61618.545454544997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>61618.545454545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>46</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>72</v>
       </c>
       <c r="E18">
-        <v>4.6040000000000001</v>
+        <v>4.604</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -926,24 +844,24 @@
         <v>350618</v>
       </c>
       <c r="H18">
-        <v>28049.439999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28049.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>46</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>73</v>
       </c>
       <c r="E19">
-        <v>6.3319999999999999</v>
+        <v>6.332</v>
       </c>
       <c r="F19">
         <v>16</v>
@@ -955,21 +873,21 @@
         <v>39749.125</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>77</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>71</v>
       </c>
       <c r="E20">
-        <v>175.90799999999999</v>
+        <v>175.908</v>
       </c>
       <c r="F20">
         <v>141</v>
@@ -978,20 +896,20 @@
         <v>3221433</v>
       </c>
       <c r="H20">
-        <v>45694.085106382998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>45694.085106383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>82</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>46</v>
       </c>
       <c r="E21">
@@ -1004,24 +922,24 @@
         <v>116165</v>
       </c>
       <c r="H21">
-        <v>1888.8617886178999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1888.8617886179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>81</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>70</v>
       </c>
       <c r="E22">
-        <v>32.646000000000001</v>
+        <v>32.646</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -1033,17 +951,17 @@
         <v>7918.4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>31</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>79</v>
       </c>
       <c r="E23">
@@ -1059,17 +977,17 @@
         <v>11541.802325581</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>79</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>40</v>
       </c>
       <c r="E24">
@@ -1082,24 +1000,24 @@
         <v>2626158</v>
       </c>
       <c r="H24">
-        <v>23874.163636363999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23874.163636364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>63</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>289.26900000000001</v>
+        <v>289.269</v>
       </c>
       <c r="F25">
         <v>222</v>
@@ -1111,17 +1029,17 @@
         <v>29021.918918919</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>56</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>31</v>
       </c>
       <c r="E26">
@@ -1134,24 +1052,24 @@
         <v>2958721</v>
       </c>
       <c r="H26">
-        <v>37690.713375795996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>37690.713375796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>31</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>75</v>
       </c>
       <c r="E27">
-        <v>25.332999999999998</v>
+        <v>25.333</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1160,24 +1078,24 @@
         <v>420638</v>
       </c>
       <c r="H27">
-        <v>28042.533333333002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28042.533333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>56</v>
       </c>
       <c r="E28">
-        <v>71.257999999999996</v>
+        <v>71.258</v>
       </c>
       <c r="F28">
         <v>89</v>
@@ -1186,20 +1104,20 @@
         <v>1296670</v>
       </c>
       <c r="H28">
-        <v>29138.651685393001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29138.651685393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>55</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
@@ -1212,24 +1130,24 @@
         <v>1263158</v>
       </c>
       <c r="H29">
-        <v>29038.114942528999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29038.114942529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="F30">
         <v>16</v>
@@ -1241,21 +1159,21 @@
         <v>129262.625</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>53</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>55</v>
       </c>
       <c r="E31">
-        <v>65.608000000000004</v>
+        <v>65.608</v>
       </c>
       <c r="F31">
         <v>79</v>
@@ -1264,24 +1182,24 @@
         <v>1033133</v>
       </c>
       <c r="H31">
-        <v>26155.265822785001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26155.265822785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>44</v>
       </c>
       <c r="E32">
-        <v>40.194000000000003</v>
+        <v>40.194</v>
       </c>
       <c r="F32">
         <v>73</v>
@@ -1290,20 +1208,20 @@
         <v>2722824</v>
       </c>
       <c r="H32">
-        <v>74597.917808219005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74597.917808219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>57</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>75</v>
       </c>
       <c r="E33">
@@ -1316,20 +1234,20 @@
         <v>483736</v>
       </c>
       <c r="H33">
-        <v>8340.2758620690001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8340.275862069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>47</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>53</v>
       </c>
       <c r="E34">
@@ -1342,24 +1260,24 @@
         <v>1469632</v>
       </c>
       <c r="H34">
-        <v>8773.9223880597001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8773.9223880597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>20</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>47</v>
       </c>
       <c r="E35">
-        <v>58.045999999999999</v>
+        <v>58.046</v>
       </c>
       <c r="F35">
         <v>73</v>
@@ -1371,17 +1289,17 @@
         <v>26798.136986301</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>47</v>
       </c>
       <c r="E36">
@@ -1394,24 +1312,24 @@
         <v>309010</v>
       </c>
       <c r="H36">
-        <v>4511.0948905108999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4511.0948905109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>15</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>20</v>
       </c>
       <c r="E37">
-        <v>80.174999999999997</v>
+        <v>80.175</v>
       </c>
       <c r="F37">
         <v>105</v>
@@ -1420,24 +1338,24 @@
         <v>338804</v>
       </c>
       <c r="H37">
-        <v>6453.4095238094997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6453.4095238095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>59</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>20</v>
       </c>
       <c r="E38">
-        <v>136.28200000000001</v>
+        <v>136.282</v>
       </c>
       <c r="F38">
         <v>117</v>
@@ -1446,20 +1364,20 @@
         <v>875456</v>
       </c>
       <c r="H38">
-        <v>14965.059829059999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14965.05982906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>59</v>
       </c>
       <c r="E39">
@@ -1472,24 +1390,24 @@
         <v>1520002</v>
       </c>
       <c r="H39">
-        <v>21714.314285714001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21714.314285714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>49</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>59</v>
       </c>
       <c r="E40">
-        <v>51.473999999999997</v>
+        <v>51.474</v>
       </c>
       <c r="F40">
         <v>72</v>
@@ -1498,20 +1416,20 @@
         <v>2811170</v>
       </c>
       <c r="H40">
-        <v>78088.055555555999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>78088.055555556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>52</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>38</v>
       </c>
       <c r="E41">
@@ -1524,24 +1442,24 @@
         <v>133875</v>
       </c>
       <c r="H41">
-        <v>4958.3333333333003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4958.3333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>13</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>38</v>
       </c>
       <c r="E42">
-        <v>67.956999999999994</v>
+        <v>67.957</v>
       </c>
       <c r="F42">
         <v>78</v>
@@ -1550,20 +1468,20 @@
         <v>308044</v>
       </c>
       <c r="H42">
-        <v>7898.5641025640998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7898.5641025641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>29</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>49</v>
       </c>
       <c r="E43">
@@ -1576,20 +1494,20 @@
         <v>644253</v>
       </c>
       <c r="H43">
-        <v>61357.428571429002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>61357.428571429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>18</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>13</v>
       </c>
       <c r="E44">
@@ -1602,24 +1520,24 @@
         <v>255865</v>
       </c>
       <c r="H44">
-        <v>6560.6410256409999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6560.641025641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>65</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>13</v>
       </c>
       <c r="E45">
-        <v>49.970999999999997</v>
+        <v>49.971</v>
       </c>
       <c r="F45">
         <v>51</v>
@@ -1628,24 +1546,24 @@
         <v>34300</v>
       </c>
       <c r="H45">
-        <v>1345.0980392157001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1345.0980392157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>85</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>29</v>
       </c>
       <c r="E46">
-        <v>132.18199999999999</v>
+        <v>132.182</v>
       </c>
       <c r="F46">
         <v>120</v>
@@ -1654,24 +1572,24 @@
         <v>1098271</v>
       </c>
       <c r="H46">
-        <v>18304.516666667001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18304.516666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>85</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>16</v>
       </c>
       <c r="E47">
-        <v>72.787999999999997</v>
+        <v>72.788</v>
       </c>
       <c r="F47">
         <v>88</v>
@@ -1683,17 +1601,17 @@
         <v>14931.136363636</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>25</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>85</v>
       </c>
       <c r="E48">
@@ -1706,20 +1624,20 @@
         <v>422255</v>
       </c>
       <c r="H48">
-        <v>20107.380952381001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20107.380952381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>21</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>25</v>
       </c>
       <c r="E49">
@@ -1732,20 +1650,20 @@
         <v>337800</v>
       </c>
       <c r="H49">
-        <v>16890</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16890.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>78</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>40</v>
       </c>
       <c r="E50">
@@ -1758,24 +1676,24 @@
         <v>1078233</v>
       </c>
       <c r="H50">
-        <v>17532.243902439001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17532.243902439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>6</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>78</v>
       </c>
       <c r="E51">
-        <v>81.412999999999997</v>
+        <v>81.413</v>
       </c>
       <c r="F51">
         <v>54</v>
@@ -1784,24 +1702,24 @@
         <v>32055</v>
       </c>
       <c r="H51">
-        <v>1187.2222222221999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1187.2222222222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>78</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>60</v>
       </c>
       <c r="E52">
-        <v>212.38300000000001</v>
+        <v>212.383</v>
       </c>
       <c r="F52">
         <v>186</v>
@@ -1810,20 +1728,20 @@
         <v>3221433</v>
       </c>
       <c r="H52">
-        <v>34639.064516129001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+        <v>34639.064516129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <v>51</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>71</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>78</v>
       </c>
       <c r="E53">
@@ -1836,20 +1754,20 @@
         <v>3213148</v>
       </c>
       <c r="H53">
-        <v>44627.055555555999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44627.055555556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>40</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>88</v>
       </c>
       <c r="E54">
@@ -1862,24 +1780,24 @@
         <v>3221433</v>
       </c>
       <c r="H54">
-        <v>35400.362637363003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35400.362637363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <v>53</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>31</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>40</v>
       </c>
       <c r="E55">
-        <v>138.75800000000001</v>
+        <v>138.758</v>
       </c>
       <c r="F55">
         <v>185</v>
@@ -1888,24 +1806,24 @@
         <v>2103370</v>
       </c>
       <c r="H55">
-        <v>22739.135135134999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22739.135135135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <v>54</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>70</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>26</v>
       </c>
       <c r="E56">
-        <v>65.665999999999997</v>
+        <v>65.666</v>
       </c>
       <c r="F56">
         <v>80</v>
@@ -1917,17 +1835,17 @@
         <v>11217.775</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <v>55</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>70</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>71</v>
       </c>
       <c r="E57">
@@ -1940,24 +1858,24 @@
         <v>142975</v>
       </c>
       <c r="H57">
-        <v>16820.588235293999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16820.588235294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <v>56</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>89</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>60</v>
       </c>
       <c r="E58">
-        <v>115.45399999999999</v>
+        <v>115.454</v>
       </c>
       <c r="F58">
         <v>182</v>
@@ -1966,24 +1884,24 @@
         <v>3221433</v>
       </c>
       <c r="H58">
-        <v>35400.362637363003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35400.362637363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <v>57</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>60</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>42</v>
       </c>
       <c r="E59">
-        <v>28.170999999999999</v>
+        <v>28.171</v>
       </c>
       <c r="F59">
         <v>17</v>
@@ -1992,24 +1910,24 @@
         <v>1050119</v>
       </c>
       <c r="H59">
-        <v>123543.41176471001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>123543.41176471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <v>58</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>88</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>23</v>
       </c>
       <c r="E60">
-        <v>53.347000000000001</v>
+        <v>53.347</v>
       </c>
       <c r="F60">
         <v>77</v>
@@ -2018,24 +1936,24 @@
         <v>2569000</v>
       </c>
       <c r="H60">
-        <v>66727.272727272997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>66727.272727273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <v>59</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>88</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>42</v>
       </c>
       <c r="E61">
-        <v>81.478999999999999</v>
+        <v>81.479</v>
       </c>
       <c r="F61">
         <v>150</v>
@@ -2047,17 +1965,17 @@
         <v>42952.44</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>89</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>3</v>
       </c>
       <c r="E62">
@@ -2070,24 +1988,24 @@
         <v>650942</v>
       </c>
       <c r="H62">
-        <v>43396.133333332997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>43396.133333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <v>61</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <v>39</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>89</v>
       </c>
       <c r="E63">
-        <v>34.085999999999999</v>
+        <v>34.086</v>
       </c>
       <c r="F63">
         <v>25</v>
@@ -2099,17 +2017,17 @@
         <v>82092.88</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <v>62</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>39</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>76</v>
       </c>
       <c r="E64">
@@ -2122,20 +2040,20 @@
         <v>365475</v>
       </c>
       <c r="H64">
-        <v>27072.222222222001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27072.222222222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <v>63</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>19</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>39</v>
       </c>
       <c r="E65">
@@ -2148,24 +2066,24 @@
         <v>1029888</v>
       </c>
       <c r="H65">
-        <v>68659.199999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68659.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <v>64</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>42</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>24</v>
       </c>
       <c r="E66">
-        <v>22.196999999999999</v>
+        <v>22.197</v>
       </c>
       <c r="F66">
         <v>61</v>
@@ -2174,24 +2092,24 @@
         <v>2067298</v>
       </c>
       <c r="H66">
-        <v>67780.262295081993</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <v>67780.262295082</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <v>23</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>41</v>
       </c>
       <c r="E67">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="F67">
         <v>96</v>
@@ -2200,24 +2118,24 @@
         <v>2627554</v>
       </c>
       <c r="H67">
-        <v>54740.708333333001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>54740.708333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <v>66</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>12</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>41</v>
       </c>
       <c r="E68">
-        <v>98.222999999999999</v>
+        <v>98.223</v>
       </c>
       <c r="F68">
         <v>193</v>
@@ -2229,21 +2147,21 @@
         <v>31061.419689119</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <v>67</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <v>41</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>80</v>
       </c>
       <c r="E69">
-        <v>40.777999999999999</v>
+        <v>40.778</v>
       </c>
       <c r="F69">
         <v>62</v>
@@ -2252,20 +2170,20 @@
         <v>1902368</v>
       </c>
       <c r="H69">
-        <v>61366.709677418999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <v>61366.709677419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <v>68</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70">
         <v>43</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>63</v>
       </c>
       <c r="E70">
@@ -2281,21 +2199,21 @@
         <v>58043.837837838</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <v>69</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71">
         <v>84</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>43</v>
       </c>
       <c r="E71">
-        <v>83.447000000000003</v>
+        <v>83.447</v>
       </c>
       <c r="F71">
         <v>126</v>
@@ -2304,24 +2222,24 @@
         <v>1037028</v>
       </c>
       <c r="H71">
-        <v>16460.761904761999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16460.761904762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <v>70</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>37</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>43</v>
       </c>
       <c r="E72">
-        <v>210.11199999999999</v>
+        <v>210.112</v>
       </c>
       <c r="F72">
         <v>118</v>
@@ -2330,24 +2248,24 @@
         <v>3221433</v>
       </c>
       <c r="H72">
-        <v>54600.559322034002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <v>54600.559322034</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <v>71</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>51</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>84</v>
       </c>
       <c r="E73">
-        <v>90.084000000000003</v>
+        <v>90.084</v>
       </c>
       <c r="F73">
         <v>137</v>
@@ -2359,21 +2277,21 @@
         <v>14637.693430657</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
         <v>72</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>44</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>12</v>
       </c>
       <c r="E74">
-        <v>74.066000000000003</v>
+        <v>74.066</v>
       </c>
       <c r="F74">
         <v>104</v>
@@ -2382,24 +2300,24 @@
         <v>2403070</v>
       </c>
       <c r="H74">
-        <v>46212.884615385003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <v>46212.884615385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <v>73</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>44</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>86</v>
       </c>
       <c r="E75">
-        <v>87.484999999999999</v>
+        <v>87.485</v>
       </c>
       <c r="F75">
         <v>44</v>
@@ -2408,20 +2326,20 @@
         <v>124033</v>
       </c>
       <c r="H75">
-        <v>5637.8636363635997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5637.8636363636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
         <v>74</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>80</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>68</v>
       </c>
       <c r="E76">
@@ -2434,24 +2352,24 @@
         <v>1293339</v>
       </c>
       <c r="H76">
-        <v>6293.6204379561996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6293.6204379562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <v>75</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>68</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>52.405000000000001</v>
+        <v>52.405</v>
       </c>
       <c r="F77">
         <v>112</v>
@@ -2460,24 +2378,24 @@
         <v>922879</v>
       </c>
       <c r="H77">
-        <v>16479.982142856999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16479.982142857</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
         <v>76</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>61</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>63.564999999999998</v>
+        <v>63.565</v>
       </c>
       <c r="F78">
         <v>36</v>
@@ -2486,20 +2404,20 @@
         <v>140971</v>
       </c>
       <c r="H78">
-        <v>7831.7222222221999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7831.7222222222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
         <v>77</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79">
         <v>17</v>
       </c>
       <c r="E79">
@@ -2515,17 +2433,17 @@
         <v>15579.842105263</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <v>78</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <v>69</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80">
         <v>57</v>
       </c>
       <c r="E80">
@@ -2538,24 +2456,24 @@
         <v>144866</v>
       </c>
       <c r="H80">
-        <v>5365.4074074073997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5365.4074074074</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <v>79</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <v>64</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>57</v>
       </c>
       <c r="E81">
-        <v>84.070999999999998</v>
+        <v>84.071</v>
       </c>
       <c r="F81">
         <v>46</v>
@@ -2567,17 +2485,17 @@
         <v>14164.260869565</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <v>80</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <v>87</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>64</v>
       </c>
       <c r="E82">
@@ -2593,21 +2511,21 @@
         <v>2583.6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83">
         <v>14</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83">
         <v>64</v>
       </c>
       <c r="E83">
-        <v>67.846999999999994</v>
+        <v>67.847</v>
       </c>
       <c r="F83">
         <v>40</v>
@@ -2616,20 +2534,20 @@
         <v>191616</v>
       </c>
       <c r="H83">
-        <v>9580.7999999999993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9580.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <v>82</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>15</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>14</v>
       </c>
       <c r="E84">
@@ -2645,21 +2563,21 @@
         <v>34075.5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <v>83</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85">
         <v>14</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>4.8570000000000002</v>
+        <v>4.857</v>
       </c>
       <c r="F85">
         <v>23</v>
@@ -2668,24 +2586,24 @@
         <v>2944133</v>
       </c>
       <c r="H85">
-        <v>256011.56521738999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <v>256011.56521739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <v>84</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86">
         <v>27</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86">
         <v>45</v>
       </c>
       <c r="E86">
-        <v>29.062999999999999</v>
+        <v>29.063</v>
       </c>
       <c r="F86">
         <v>52</v>
@@ -2694,20 +2612,20 @@
         <v>2329681</v>
       </c>
       <c r="H86">
-        <v>89603.115384614997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <v>89603.115384615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <v>85</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <v>11</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87">
         <v>45</v>
       </c>
       <c r="E87">
@@ -2723,17 +2641,17 @@
         <v>26500.043165468</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <v>86</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <v>51</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88">
         <v>11</v>
       </c>
       <c r="E88">
@@ -2749,21 +2667,21 @@
         <v>13785.425101215</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <v>87</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>74</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>19</v>
       </c>
       <c r="E89">
-        <v>69.135000000000005</v>
+        <v>69.135</v>
       </c>
       <c r="F89">
         <v>29</v>
@@ -2772,24 +2690,24 @@
         <v>338116</v>
       </c>
       <c r="H89">
-        <v>23318.344827585999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23318.344827586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <v>88</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>30</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>19</v>
       </c>
       <c r="E90">
-        <v>60.255000000000003</v>
+        <v>60.255</v>
       </c>
       <c r="F90">
         <v>39</v>
@@ -2798,24 +2716,24 @@
         <v>147210</v>
       </c>
       <c r="H90">
-        <v>7549.2307692308004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7549.2307692308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <v>89</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>22</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>54</v>
       </c>
       <c r="E91">
-        <v>27.335000000000001</v>
+        <v>27.335</v>
       </c>
       <c r="F91">
         <v>54</v>
@@ -2824,20 +2742,20 @@
         <v>182762</v>
       </c>
       <c r="H91">
-        <v>6768.9629629629999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6768.962962963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <v>90</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>28</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>22</v>
       </c>
       <c r="E92">
@@ -2850,24 +2768,24 @@
         <v>3221433</v>
       </c>
       <c r="H92">
-        <v>56024.921739129997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>56024.92173913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <v>91</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>22</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>32</v>
       </c>
       <c r="E93">
-        <v>40.084000000000003</v>
+        <v>40.084</v>
       </c>
       <c r="F93">
         <v>83</v>
@@ -2876,24 +2794,24 @@
         <v>3221433</v>
       </c>
       <c r="H93">
-        <v>77624.891566264996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <v>77624.891566265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <v>92</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>54</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>48</v>
       </c>
       <c r="E94">
-        <v>6.0410000000000004</v>
+        <v>6.041</v>
       </c>
       <c r="F94">
         <v>15</v>
@@ -2902,24 +2820,24 @@
         <v>41624</v>
       </c>
       <c r="H94">
-        <v>5549.8666666667004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5549.8666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <v>93</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>27</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>28</v>
       </c>
       <c r="E95">
-        <v>27.030999999999999</v>
+        <v>27.031</v>
       </c>
       <c r="F95">
         <v>35</v>
@@ -2928,20 +2846,20 @@
         <v>3221433</v>
       </c>
       <c r="H95">
-        <v>184081.88571428999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <v>184081.88571429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <v>94</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>32</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>34</v>
       </c>
       <c r="E96">
@@ -2957,21 +2875,21 @@
         <v>25874.963855422</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <v>95</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>34</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>62</v>
       </c>
       <c r="E97">
-        <v>42.216999999999999</v>
+        <v>42.217</v>
       </c>
       <c r="F97">
         <v>100</v>
@@ -2980,20 +2898,20 @@
         <v>1593936</v>
       </c>
       <c r="H97">
-        <v>31878.720000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31878.72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <v>96</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>34</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>10</v>
       </c>
       <c r="E98">
@@ -3006,24 +2924,24 @@
         <v>3221433</v>
       </c>
       <c r="H98">
-        <v>137082.25531914999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <v>137082.25531915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <v>97</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>62</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>83</v>
       </c>
       <c r="E99">
-        <v>39.590000000000003</v>
+        <v>39.59</v>
       </c>
       <c r="F99">
         <v>77</v>
@@ -3032,24 +2950,24 @@
         <v>864047</v>
       </c>
       <c r="H99">
-        <v>22442.779220779001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22442.779220779</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
         <v>98</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>10</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>2</v>
       </c>
       <c r="E100">
-        <v>29.521999999999998</v>
+        <v>29.522</v>
       </c>
       <c r="F100">
         <v>67</v>
@@ -3058,20 +2976,20 @@
         <v>443088</v>
       </c>
       <c r="H100">
-        <v>13226.507462686999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13226.507462687</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
         <v>99</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>10</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>50</v>
       </c>
       <c r="E101">
@@ -3084,20 +3002,20 @@
         <v>214216</v>
       </c>
       <c r="H101">
-        <v>23801.777777777999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23801.777777778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
         <v>100</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>10</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>77</v>
       </c>
       <c r="E102">
@@ -3110,20 +3028,20 @@
         <v>3221433</v>
       </c>
       <c r="H102">
-        <v>36195.876404494004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+        <v>36195.876404494</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
         <v>101</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>10</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>58</v>
       </c>
       <c r="E103">
@@ -3136,24 +3054,24 @@
         <v>462578</v>
       </c>
       <c r="H103">
-        <v>27210.470588234999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27210.470588235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
         <v>102</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>50</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>63</v>
       </c>
       <c r="E104">
-        <v>161.90100000000001</v>
+        <v>161.901</v>
       </c>
       <c r="F104">
         <v>170</v>
@@ -3162,24 +3080,24 @@
         <v>232589</v>
       </c>
       <c r="H104">
-        <v>2736.3411764706002</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2736.3411764706</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
         <v>103</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105">
         <v>83</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105">
         <v>73</v>
       </c>
       <c r="E105">
-        <v>93.837999999999994</v>
+        <v>93.838</v>
       </c>
       <c r="F105">
         <v>176</v>
@@ -3191,21 +3109,21 @@
         <v>10872.261363636</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
         <v>104</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106">
         <v>73</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106">
         <v>72</v>
       </c>
       <c r="E106">
-        <v>6.7110000000000003</v>
+        <v>6.711</v>
       </c>
       <c r="F106">
         <v>18</v>
@@ -3217,21 +3135,21 @@
         <v>49075.888888889</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
         <v>105</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107">
         <v>72</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107">
         <v>46</v>
       </c>
       <c r="E107">
-        <v>4.6040000000000001</v>
+        <v>4.604</v>
       </c>
       <c r="F107">
         <v>23</v>
@@ -3240,24 +3158,24 @@
         <v>231011</v>
       </c>
       <c r="H107">
-        <v>20087.913043478002</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20087.913043478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
         <v>106</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108">
         <v>73</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108">
         <v>46</v>
       </c>
       <c r="E108">
-        <v>6.3319999999999999</v>
+        <v>6.332</v>
       </c>
       <c r="F108">
         <v>19</v>
@@ -3269,21 +3187,21 @@
         <v>48552.526315789</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
         <v>107</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109">
         <v>71</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109">
         <v>77</v>
       </c>
       <c r="E109">
-        <v>175.90799999999999</v>
+        <v>175.908</v>
       </c>
       <c r="F109">
         <v>143</v>
@@ -3292,20 +3210,20 @@
         <v>1618137</v>
       </c>
       <c r="H109">
-        <v>22631.286713287001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22631.286713287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
         <v>108</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110">
         <v>46</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110">
         <v>82</v>
       </c>
       <c r="E110">
@@ -3321,21 +3239,21 @@
         <v>2422.030075188</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
         <v>109</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111">
         <v>70</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111">
         <v>81</v>
       </c>
       <c r="E111">
-        <v>32.646000000000001</v>
+        <v>32.646</v>
       </c>
       <c r="F111">
         <v>21</v>
@@ -3344,20 +3262,20 @@
         <v>41064</v>
       </c>
       <c r="H111">
-        <v>3910.8571428570999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3910.8571428571</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
         <v>110</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112">
         <v>79</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112">
         <v>31</v>
       </c>
       <c r="E112">
@@ -3373,17 +3291,17 @@
         <v>21786.448275862</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <v>111</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113">
         <v>40</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113">
         <v>79</v>
       </c>
       <c r="E113">
@@ -3396,24 +3314,24 @@
         <v>1108686</v>
       </c>
       <c r="H113">
-        <v>9316.6890756303001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9316.6890756303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
         <v>112</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114">
         <v>0</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114">
         <v>63</v>
       </c>
       <c r="E114">
-        <v>289.26900000000001</v>
+        <v>289.269</v>
       </c>
       <c r="F114">
         <v>241</v>
@@ -3425,17 +3343,17 @@
         <v>10980.663900415</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
         <v>113</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115">
         <v>31</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115">
         <v>56</v>
       </c>
       <c r="E115">
@@ -3451,21 +3369,21 @@
         <v>37899.211764706</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <v>114</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116">
         <v>75</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116">
         <v>31</v>
       </c>
       <c r="E116">
-        <v>25.332999999999998</v>
+        <v>25.333</v>
       </c>
       <c r="F116">
         <v>32</v>
@@ -3477,21 +3395,21 @@
         <v>31418.875</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
         <v>115</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117">
         <v>56</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117">
         <v>4</v>
       </c>
       <c r="E117">
-        <v>71.257999999999996</v>
+        <v>71.258</v>
       </c>
       <c r="F117">
         <v>89</v>
@@ -3500,20 +3418,20 @@
         <v>1759883</v>
       </c>
       <c r="H117">
-        <v>39547.932584269998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39547.93258427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
         <v>116</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118">
         <v>4</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118">
         <v>55</v>
       </c>
       <c r="E118">
@@ -3526,24 +3444,24 @@
         <v>1017496</v>
       </c>
       <c r="H118">
-        <v>21197.833333333001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21197.833333333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
         <v>117</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119">
         <v>5</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119">
         <v>4</v>
       </c>
       <c r="E119">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="F119">
         <v>17</v>
@@ -3552,24 +3470,24 @@
         <v>515368</v>
       </c>
       <c r="H119">
-        <v>60631.529411764997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60631.529411765</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
         <v>118</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120">
         <v>55</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120">
         <v>53</v>
       </c>
       <c r="E120">
-        <v>65.608000000000004</v>
+        <v>65.608</v>
       </c>
       <c r="F120">
         <v>80</v>
@@ -3578,24 +3496,24 @@
         <v>994359</v>
       </c>
       <c r="H120">
-        <v>24858.974999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24858.975</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
         <v>119</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121">
         <v>44</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121">
         <v>5</v>
       </c>
       <c r="E121">
-        <v>40.194000000000003</v>
+        <v>40.194</v>
       </c>
       <c r="F121">
         <v>74</v>
@@ -3604,20 +3522,20 @@
         <v>1614414</v>
       </c>
       <c r="H121">
-        <v>43632.810810811003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+        <v>43632.810810811</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
         <v>120</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122">
         <v>75</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122">
         <v>57</v>
       </c>
       <c r="E122">
@@ -3630,20 +3548,20 @@
         <v>354029</v>
       </c>
       <c r="H122">
-        <v>5851.7190082645002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5851.7190082645</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
         <v>121</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123">
         <v>53</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123">
         <v>47</v>
       </c>
       <c r="E123">
@@ -3656,24 +3574,24 @@
         <v>1268483</v>
       </c>
       <c r="H123">
-        <v>7439.7829912022999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7439.7829912023</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
         <v>122</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124">
         <v>47</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124">
         <v>20</v>
       </c>
       <c r="E124">
-        <v>58.045999999999999</v>
+        <v>58.046</v>
       </c>
       <c r="F124">
         <v>71</v>
@@ -3682,20 +3600,20 @@
         <v>774021</v>
       </c>
       <c r="H124">
-        <v>21803.408450703999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21803.408450704</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
         <v>123</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125">
         <v>47</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125">
         <v>35</v>
       </c>
       <c r="E125">
@@ -3708,24 +3626,24 @@
         <v>316403</v>
       </c>
       <c r="H125">
-        <v>4364.1793103447999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4364.1793103448</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
         <v>124</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126">
         <v>20</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126">
         <v>15</v>
       </c>
       <c r="E126">
-        <v>80.174999999999997</v>
+        <v>80.175</v>
       </c>
       <c r="F126">
         <v>113</v>
@@ -3734,24 +3652,24 @@
         <v>300385</v>
       </c>
       <c r="H126">
-        <v>5316.5486725663995</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5316.5486725664</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
         <v>125</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127">
         <v>20</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127">
         <v>59</v>
       </c>
       <c r="E127">
-        <v>136.28200000000001</v>
+        <v>136.282</v>
       </c>
       <c r="F127">
         <v>96</v>
@@ -3760,20 +3678,20 @@
         <v>624830</v>
       </c>
       <c r="H127">
-        <v>13017.291666667001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13017.291666667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
         <v>126</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128">
         <v>59</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128">
         <v>38</v>
       </c>
       <c r="E128">
@@ -3789,21 +3707,21 @@
         <v>32412.12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
         <v>127</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129">
         <v>59</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129">
         <v>49</v>
       </c>
       <c r="E129">
-        <v>51.473999999999997</v>
+        <v>51.474</v>
       </c>
       <c r="F129">
         <v>81</v>
@@ -3812,20 +3730,20 @@
         <v>1975181</v>
       </c>
       <c r="H129">
-        <v>48769.901234568002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+        <v>48769.901234568</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
         <v>128</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130">
         <v>38</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130">
         <v>52</v>
       </c>
       <c r="E130">
@@ -3838,24 +3756,24 @@
         <v>128233</v>
       </c>
       <c r="H130">
-        <v>4421.8275862069004</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4421.8275862069</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
         <v>129</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131">
         <v>38</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131">
         <v>13</v>
       </c>
       <c r="E131">
-        <v>67.956999999999994</v>
+        <v>67.957</v>
       </c>
       <c r="F131">
         <v>96</v>
@@ -3864,20 +3782,20 @@
         <v>325117</v>
       </c>
       <c r="H131">
-        <v>6773.2708333333003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6773.2708333333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
         <v>130</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132">
         <v>49</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132">
         <v>29</v>
       </c>
       <c r="E132">
@@ -3890,20 +3808,20 @@
         <v>439265</v>
       </c>
       <c r="H132">
-        <v>30294.137931034002</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30294.137931034</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
         <v>131</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133">
         <v>13</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133">
         <v>18</v>
       </c>
       <c r="E133">
@@ -3916,24 +3834,24 @@
         <v>245986</v>
       </c>
       <c r="H133">
-        <v>6307.3333333333003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6307.3333333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
         <v>132</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134">
         <v>13</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134">
         <v>65</v>
       </c>
       <c r="E134">
-        <v>49.970999999999997</v>
+        <v>49.971</v>
       </c>
       <c r="F134">
         <v>54</v>
@@ -3945,21 +3863,21 @@
         <v>2352.3703703704</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
         <v>133</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135">
         <v>29</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135">
         <v>85</v>
       </c>
       <c r="E135">
-        <v>132.18199999999999</v>
+        <v>132.182</v>
       </c>
       <c r="F135">
         <v>114</v>
@@ -3968,24 +3886,24 @@
         <v>687522</v>
       </c>
       <c r="H135">
-        <v>12061.789473684001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12061.789473684</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
         <v>134</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136">
         <v>16</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136">
         <v>85</v>
       </c>
       <c r="E136">
-        <v>72.787999999999997</v>
+        <v>72.788</v>
       </c>
       <c r="F136">
         <v>79</v>
@@ -3994,20 +3912,20 @@
         <v>1379462</v>
       </c>
       <c r="H136">
-        <v>34923.088607594997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+        <v>34923.088607595</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
         <v>135</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137">
         <v>85</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137">
         <v>25</v>
       </c>
       <c r="E137">
@@ -4020,20 +3938,20 @@
         <v>485268</v>
       </c>
       <c r="H137">
-        <v>21098.608695652001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21098.608695652</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
         <v>136</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138">
         <v>25</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138">
         <v>21</v>
       </c>
       <c r="E138">
@@ -4046,20 +3964,20 @@
         <v>357627</v>
       </c>
       <c r="H138">
-        <v>16255.772727273001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16255.772727273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <v>137</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139">
         <v>40</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139">
         <v>78</v>
       </c>
       <c r="E139">
@@ -4072,24 +3990,24 @@
         <v>883705</v>
       </c>
       <c r="H139">
-        <v>13916.614173227999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13916.614173228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
         <v>138</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140">
         <v>78</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140">
         <v>6</v>
       </c>
       <c r="E140">
-        <v>81.412999999999997</v>
+        <v>81.413</v>
       </c>
       <c r="F140">
         <v>67</v>
@@ -4098,24 +4016,24 @@
         <v>26368</v>
       </c>
       <c r="H140">
-        <v>787.10447761193996</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+        <v>787.10447761194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
         <v>139</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141">
         <v>60</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141">
         <v>78</v>
       </c>
       <c r="E141">
-        <v>212.38300000000001</v>
+        <v>212.383</v>
       </c>
       <c r="F141">
         <v>205</v>
@@ -4124,20 +4042,20 @@
         <v>1578121</v>
       </c>
       <c r="H141">
-        <v>15396.302439024001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15396.302439024</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
         <v>140</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142">
         <v>78</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142">
         <v>71</v>
       </c>
       <c r="E142">
@@ -4150,20 +4068,20 @@
         <v>1608433</v>
       </c>
       <c r="H142">
-        <v>21303.748344371001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21303.748344371</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
         <v>141</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143">
         <v>88</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143">
         <v>40</v>
       </c>
       <c r="E143">
@@ -4176,24 +4094,24 @@
         <v>3221433</v>
       </c>
       <c r="H143">
-        <v>34639.064516129001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+        <v>34639.064516129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <v>142</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144">
         <v>40</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144">
         <v>31</v>
       </c>
       <c r="E144">
-        <v>138.75800000000001</v>
+        <v>138.758</v>
       </c>
       <c r="F144">
         <v>199</v>
@@ -4202,24 +4120,24 @@
         <v>839657</v>
       </c>
       <c r="H144">
-        <v>8438.7638190955004</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8438.7638190955</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
         <v>143</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145">
         <v>26</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145">
         <v>70</v>
       </c>
       <c r="E145">
-        <v>65.665999999999997</v>
+        <v>65.666</v>
       </c>
       <c r="F145">
         <v>78</v>
@@ -4228,20 +4146,20 @@
         <v>146047</v>
       </c>
       <c r="H145">
-        <v>3744.7948717948998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3744.7948717949</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
         <v>144</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146">
         <v>71</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146">
         <v>70</v>
       </c>
       <c r="E146">
@@ -4254,24 +4172,24 @@
         <v>408557</v>
       </c>
       <c r="H146">
-        <v>62854.923076922998</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62854.923076923</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
         <v>145</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147">
         <v>60</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147">
         <v>89</v>
       </c>
       <c r="E147">
-        <v>115.45399999999999</v>
+        <v>115.454</v>
       </c>
       <c r="F147">
         <v>191</v>
@@ -4280,24 +4198,24 @@
         <v>3221433</v>
       </c>
       <c r="H147">
-        <v>33732.282722513002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+        <v>33732.282722513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
         <v>146</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148">
         <v>42</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148">
         <v>60</v>
       </c>
       <c r="E148">
-        <v>28.170999999999999</v>
+        <v>28.171</v>
       </c>
       <c r="F148">
         <v>23</v>
@@ -4306,24 +4224,24 @@
         <v>646706</v>
       </c>
       <c r="H148">
-        <v>56235.304347826001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+        <v>56235.304347826</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
         <v>147</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149">
         <v>23</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149">
         <v>88</v>
       </c>
       <c r="E149">
-        <v>53.347000000000001</v>
+        <v>53.347</v>
       </c>
       <c r="F149">
         <v>77</v>
@@ -4332,24 +4250,24 @@
         <v>1098523</v>
       </c>
       <c r="H149">
-        <v>28533.064935064998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28533.064935065</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
         <v>148</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150">
         <v>42</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150">
         <v>88</v>
       </c>
       <c r="E150">
-        <v>81.478999999999999</v>
+        <v>81.479</v>
       </c>
       <c r="F150">
         <v>151</v>
@@ -4361,17 +4279,17 @@
         <v>17017.602649007</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
         <v>149</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151">
         <v>3</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151">
         <v>89</v>
       </c>
       <c r="E151">
@@ -4387,21 +4305,21 @@
         <v>46586.5</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
         <v>150</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152">
         <v>89</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152">
         <v>39</v>
       </c>
       <c r="E152">
-        <v>34.085999999999999</v>
+        <v>34.086</v>
       </c>
       <c r="F152">
         <v>25</v>
@@ -4413,17 +4331,17 @@
         <v>244386.88</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
         <v>151</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153">
         <v>76</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153">
         <v>39</v>
       </c>
       <c r="E153">
@@ -4439,17 +4357,17 @@
         <v>10557.12</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
         <v>152</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154">
         <v>39</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154">
         <v>19</v>
       </c>
       <c r="E154">
@@ -4462,24 +4380,24 @@
         <v>3092719</v>
       </c>
       <c r="H154">
-        <v>199530.25806451999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+        <v>199530.25806452</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
         <v>153</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155">
         <v>24</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155">
         <v>42</v>
       </c>
       <c r="E155">
-        <v>22.196999999999999</v>
+        <v>22.197</v>
       </c>
       <c r="F155">
         <v>54</v>
@@ -4488,24 +4406,24 @@
         <v>2452980</v>
       </c>
       <c r="H155">
-        <v>90851.111111110993</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+        <v>90851.111111111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
         <v>154</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156">
         <v>41</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156">
         <v>23</v>
       </c>
       <c r="E156">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="F156">
         <v>102</v>
@@ -4514,24 +4432,24 @@
         <v>1105619</v>
       </c>
       <c r="H156">
-        <v>21678.803921569001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21678.803921569</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
         <v>155</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157">
         <v>41</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157">
         <v>12</v>
       </c>
       <c r="E157">
-        <v>98.222999999999999</v>
+        <v>98.223</v>
       </c>
       <c r="F157">
         <v>201</v>
@@ -4540,24 +4458,24 @@
         <v>1102459</v>
       </c>
       <c r="H157">
-        <v>10969.741293532001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10969.741293532</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
         <v>156</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158">
         <v>80</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158">
         <v>41</v>
       </c>
       <c r="E158">
-        <v>40.777999999999999</v>
+        <v>40.778</v>
       </c>
       <c r="F158">
         <v>61</v>
@@ -4566,20 +4484,20 @@
         <v>1031545</v>
       </c>
       <c r="H158">
-        <v>33821.147540983999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+        <v>33821.147540984</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
         <v>157</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159">
         <v>63</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159">
         <v>43</v>
       </c>
       <c r="E159">
@@ -4595,21 +4513,21 @@
         <v>25921.961904762</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
         <v>158</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160">
         <v>43</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160">
         <v>84</v>
       </c>
       <c r="E160">
-        <v>83.447000000000003</v>
+        <v>83.447</v>
       </c>
       <c r="F160">
         <v>139</v>
@@ -4621,21 +4539,21 @@
         <v>2970.5467625899</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <v>159</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161">
         <v>43</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161">
         <v>37</v>
       </c>
       <c r="E161">
-        <v>210.11199999999999</v>
+        <v>210.112</v>
       </c>
       <c r="F161">
         <v>135</v>
@@ -4644,24 +4562,24 @@
         <v>1323993</v>
       </c>
       <c r="H161">
-        <v>19614.711111110999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19614.711111111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162">
         <v>160</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162">
         <v>84</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162">
         <v>51</v>
       </c>
       <c r="E162">
-        <v>90.084000000000003</v>
+        <v>90.084</v>
       </c>
       <c r="F162">
         <v>152</v>
@@ -4670,24 +4588,24 @@
         <v>163706</v>
       </c>
       <c r="H162">
-        <v>2154.0263157895001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2154.0263157895</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
         <v>161</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163">
         <v>12</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163">
         <v>44</v>
       </c>
       <c r="E163">
-        <v>74.066000000000003</v>
+        <v>74.066</v>
       </c>
       <c r="F163">
         <v>109</v>
@@ -4699,21 +4617,21 @@
         <v>18408.458715596</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
         <v>162</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164">
         <v>86</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164">
         <v>44</v>
       </c>
       <c r="E164">
-        <v>87.484999999999999</v>
+        <v>87.485</v>
       </c>
       <c r="F164">
         <v>72</v>
@@ -4722,20 +4640,20 @@
         <v>383883</v>
       </c>
       <c r="H164">
-        <v>10663.416666667001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10663.416666667</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
         <v>163</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165">
         <v>68</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165">
         <v>80</v>
       </c>
       <c r="E165">
@@ -4748,24 +4666,24 @@
         <v>1013855</v>
       </c>
       <c r="H165">
-        <v>4566.9144144144002</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4566.9144144144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
         <v>164</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166">
         <v>1</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166">
         <v>68</v>
       </c>
       <c r="E166">
-        <v>52.405000000000001</v>
+        <v>52.405</v>
       </c>
       <c r="F166">
         <v>119</v>
@@ -4774,24 +4692,24 @@
         <v>828386</v>
       </c>
       <c r="H166">
-        <v>13922.453781513001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13922.453781513</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
         <v>165</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167">
         <v>1</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167">
         <v>61</v>
       </c>
       <c r="E167">
-        <v>63.564999999999998</v>
+        <v>63.565</v>
       </c>
       <c r="F167">
         <v>47</v>
@@ -4800,20 +4718,20 @@
         <v>149625</v>
       </c>
       <c r="H167">
-        <v>6367.0212765957003</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6367.0212765957</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
         <v>166</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168">
         <v>17</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168">
         <v>1</v>
       </c>
       <c r="E168">
@@ -4829,17 +4747,17 @@
         <v>13156.047619048</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
         <v>167</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169">
         <v>57</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169">
         <v>69</v>
       </c>
       <c r="E169">
@@ -4852,24 +4770,24 @@
         <v>168635</v>
       </c>
       <c r="H169">
-        <v>6132.1818181817998</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6132.1818181818</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <v>168</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170">
         <v>57</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170">
         <v>64</v>
       </c>
       <c r="E170">
-        <v>84.070999999999998</v>
+        <v>84.071</v>
       </c>
       <c r="F170">
         <v>58</v>
@@ -4878,20 +4796,20 @@
         <v>140627</v>
       </c>
       <c r="H170">
-        <v>4849.2068965517001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4849.2068965517</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <v>169</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171">
         <v>64</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171">
         <v>87</v>
       </c>
       <c r="E171">
@@ -4904,24 +4822,24 @@
         <v>30631</v>
       </c>
       <c r="H171">
-        <v>1392.3181818181999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1392.3181818182</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
         <v>170</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172">
         <v>64</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172">
         <v>14</v>
       </c>
       <c r="E172">
-        <v>67.846999999999994</v>
+        <v>67.847</v>
       </c>
       <c r="F172">
         <v>38</v>
@@ -4930,24 +4848,24 @@
         <v>157303</v>
       </c>
       <c r="H172">
-        <v>8279.1052631579005</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8279.1052631579</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>173</v>
       </c>
       <c r="B173">
         <v>173</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173">
         <v>45</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173">
         <v>27</v>
       </c>
       <c r="E173">
-        <v>29.062999999999999</v>
+        <v>29.063</v>
       </c>
       <c r="F173">
         <v>56</v>
@@ -4956,20 +4874,20 @@
         <v>3221433</v>
       </c>
       <c r="H173">
-        <v>115051.17857143001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+        <v>115051.17857143</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>174</v>
       </c>
       <c r="B174">
         <v>174</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174">
         <v>45</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174">
         <v>11</v>
       </c>
       <c r="E174">
@@ -4985,17 +4903,17 @@
         <v>11629.449275362</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>175</v>
       </c>
       <c r="B175">
         <v>175</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175">
         <v>11</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175">
         <v>51</v>
       </c>
       <c r="E175">
@@ -5008,24 +4926,24 @@
         <v>796354</v>
       </c>
       <c r="H175">
-        <v>6079.0381679389002</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6079.0381679389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>176</v>
       </c>
       <c r="B176">
         <v>176</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176">
         <v>19</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176">
         <v>74</v>
       </c>
       <c r="E176">
-        <v>69.135000000000005</v>
+        <v>69.135</v>
       </c>
       <c r="F176">
         <v>26</v>
@@ -5034,24 +4952,24 @@
         <v>1122136</v>
       </c>
       <c r="H176">
-        <v>86318.153846154004</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+        <v>86318.153846154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>177</v>
       </c>
       <c r="B177">
         <v>177</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177">
         <v>19</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177">
         <v>30</v>
       </c>
       <c r="E177">
-        <v>60.255000000000003</v>
+        <v>60.255</v>
       </c>
       <c r="F177">
         <v>42</v>
@@ -5064,557 +4982,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="C1:C177" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76F21BF-17A3-4080-BC33-FDF7E0732743}">
-  <dimension ref="A1:A89"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <f>A1+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A66" si="0">A2+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <f t="shared" ref="A67:A89" si="1">A66+1</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>